--- a/DATA_goal/Junction_Flooding_310.xlsx
+++ b/DATA_goal/Junction_Flooding_310.xlsx
@@ -444,28 +444,28 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
@@ -655,103 +655,103 @@
         <v>44991.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.86</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.49</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="U2" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="X2" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="Y2" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="W2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.71</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44991.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.38</v>
+        <v>13.83</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.11</v>
+        <v>11.07</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.95</v>
+        <v>29.54</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.52</v>
+        <v>25.22</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.27</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.45</v>
+        <v>34.5</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.64</v>
+        <v>16.36</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.41</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.83</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.31</v>
+        <v>13.06</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.2</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.77</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.63</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.58</v>
+        <v>15.77</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.9</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>15.81</v>
+        <v>158.11</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.04</v>
+        <v>30.38</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.02</v>
+        <v>10.22</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.01</v>
+        <v>20.14</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.47</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.41</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.82</v>
+        <v>18.19</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.89</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.58</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.19</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.65</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.17</v>
+        <v>31.69</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.83</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.22</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44991.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.2</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.56</v>
+        <v>25.64</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.17</v>
+        <v>21.7</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.9</v>
+        <v>8.99</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.65</v>
+        <v>36.55</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.42</v>
+        <v>14.21</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.1</v>
+        <v>11.02</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.32</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.16</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.65</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.76</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>13.55</v>
+        <v>135.46</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.64</v>
+        <v>26.37</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.81</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.76</v>
+        <v>17.6</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.82</v>
+        <v>18.2</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.65</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.56</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.95</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.94</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.39</v>
+        <v>33.87</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.65</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44991.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.11</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.84</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.16</v>
+        <v>21.59</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.82</v>
+        <v>18.22</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.6</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.18</v>
+        <v>31.81</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.2</v>
+        <v>11.97</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.4</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.92</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.19</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.49</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.63</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.74</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.47</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.52</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>11.27</v>
+        <v>112.65</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.22</v>
+        <v>22.15</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.4</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.82</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.68</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.03</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.54</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.69</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.93</v>
+        <v>29.31</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.68</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_310.xlsx
+++ b/DATA_goal/Junction_Flooding_310.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,73 +655,73 @@
         <v>44991.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.86</v>
+        <v>0.861</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>2.49</v>
+        <v>2.491</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.076</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>1.32</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.86</v>
+        <v>2.861</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.49</v>
+        <v>1.492</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.7</v>
+        <v>0.701</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>0.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.367</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.98</v>
+        <v>3.983</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.94</v>
+        <v>1.944</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.14</v>
+        <v>1.138</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.72</v>
+        <v>0.723</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.57</v>
+        <v>1.566</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>0.64</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.96</v>
+        <v>0.961</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>7.97</v>
+        <v>7.973</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.14</v>
+        <v>3.143</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="W2" s="4" t="n">
         <v>0.92</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.309</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>0.1</v>
@@ -730,28 +730,28 @@
         <v>0.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.49</v>
+        <v>0.494</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.97</v>
+        <v>0.966</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.17</v>
+        <v>0.167</v>
       </c>
       <c r="AF2" s="4" t="n">
         <v>2.71</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.1</v>
+        <v>3.101</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.61</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44991.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.83</v>
+        <v>13.829</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.07</v>
+        <v>11.072</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.43</v>
+        <v>0.426</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>29.54</v>
+        <v>29.539</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>25.22</v>
+        <v>25.217</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.27</v>
+        <v>10.272</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>34.5</v>
+        <v>34.495</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.36</v>
+        <v>16.364</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.41</v>
+        <v>7.406</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.83</v>
+        <v>10.831</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>13.06</v>
+        <v>13.056</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>13.2</v>
+        <v>13.205</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.77</v>
+        <v>3.768</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.63</v>
+        <v>10.631</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>15.77</v>
+        <v>15.769</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>8.971</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.7</v>
+        <v>0.698</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.23</v>
+        <v>0.232</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>158.11</v>
+        <v>158.108</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>30.38</v>
+        <v>30.377</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>10.22</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>20.14</v>
+        <v>20.144</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.47</v>
+        <v>10.468</v>
       </c>
       <c r="Y3" s="4" t="n">
         <v>1.41</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>18.19</v>
+        <v>18.189</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.859999999999999</v>
+        <v>8.859</v>
       </c>
       <c r="AB3" s="4" t="n">
         <v>7.58</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.19</v>
+        <v>9.191000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.65</v>
+        <v>12.645</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>31.69</v>
+        <v>31.686</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.83</v>
+        <v>6.832</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.25</v>
+        <v>12.246</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44991.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>12</v>
+        <v>11.999</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>9.395</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.355</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>25.64</v>
+        <v>25.641</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>21.7</v>
+        <v>21.701</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.99</v>
+        <v>8.993</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>36.55</v>
+        <v>36.547</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>14.21</v>
+        <v>14.207</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.43</v>
+        <v>6.426</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.4</v>
+        <v>9.403</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.02</v>
+        <v>11.018</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>11.32</v>
+        <v>11.318</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.16</v>
+        <v>3.163</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.204000000000001</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>13.65</v>
+        <v>13.648</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.76</v>
+        <v>7.759</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.5</v>
+        <v>0.504</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.2</v>
+        <v>0.203</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>135.46</v>
+        <v>135.462</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>26.37</v>
+        <v>26.375</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.81</v>
+        <v>8.814</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>17.6</v>
+        <v>17.599</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>9.117000000000001</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.22</v>
+        <v>1.222</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>18.2</v>
+        <v>18.205</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.65</v>
+        <v>7.652</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.56</v>
+        <v>6.558</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.95</v>
+        <v>7.947</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.94</v>
+        <v>10.941</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>33.87</v>
+        <v>33.867</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.65</v>
+        <v>5.651</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.62</v>
+        <v>10.624</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>8.94</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44991.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>26.89</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>22.52</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>37.79</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>14.93</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.92</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>14.13</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>141.3</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>27.34</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>18.37</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>18.56</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.88</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>34.54</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.15</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_310.xlsx
+++ b/DATA_goal/Junction_Flooding_310.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44991.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.11</v>
+        <v>10.108</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.84</v>
+        <v>7.842</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.291</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>21.59</v>
+        <v>21.591</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>18.22</v>
+        <v>18.218</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.6</v>
+        <v>7.598</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>31.81</v>
+        <v>31.814</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.97</v>
+        <v>11.966</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.4</v>
+        <v>5.397</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.92</v>
+        <v>7.917</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.19</v>
+        <v>9.186999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.49</v>
+        <v>9.486000000000001</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.63</v>
+        <v>2.627</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.74</v>
+        <v>7.744</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.47</v>
+        <v>11.471</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.52</v>
+        <v>6.525</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.393</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.17</v>
+        <v>0.172</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>112.65</v>
+        <v>112.652</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>22.15</v>
+        <v>22.153</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.4</v>
+        <v>7.405</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>14.82</v>
+        <v>14.815</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.68</v>
+        <v>7.682</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.03</v>
+        <v>1.028</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.54</v>
+        <v>15.541</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.43</v>
+        <v>6.431</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.51</v>
+        <v>5.514</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.69</v>
+        <v>6.686</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.204000000000001</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>29.31</v>
+        <v>29.314</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.68</v>
+        <v>4.675</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.94</v>
+        <v>8.945</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44991.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>26.89</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>37.79</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>14.93</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>14.13</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>141.3</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>34.54</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>11.15</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_310.xlsx
+++ b/DATA_goal/Junction_Flooding_310.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44991.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.108</v>
+        <v>10.11</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.842</v>
+        <v>7.84</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.291</v>
+        <v>0.29</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>21.591</v>
+        <v>21.59</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>18.218</v>
+        <v>18.22</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.598</v>
+        <v>7.6</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>31.814</v>
+        <v>31.81</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.966</v>
+        <v>11.97</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.397</v>
+        <v>5.4</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.917</v>
+        <v>7.92</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.186999999999999</v>
+        <v>9.19</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.486000000000001</v>
+        <v>9.49</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.627</v>
+        <v>2.63</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.744</v>
+        <v>7.74</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.471</v>
+        <v>11.47</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.525</v>
+        <v>6.52</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.393</v>
+        <v>0.39</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.172</v>
+        <v>0.17</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>112.652</v>
+        <v>112.65</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>22.153</v>
+        <v>22.15</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.405</v>
+        <v>7.4</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>14.815</v>
+        <v>14.82</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.682</v>
+        <v>7.68</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.028</v>
+        <v>1.03</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.541</v>
+        <v>15.54</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.431</v>
+        <v>6.43</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.514</v>
+        <v>5.51</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.686</v>
+        <v>6.69</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.204000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>29.314</v>
+        <v>29.31</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.675</v>
+        <v>4.68</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.945</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44991.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>26.89</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>22.52</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>37.79</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>14.93</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.92</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>14.13</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>141.3</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>27.34</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>18.37</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>18.56</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.88</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>34.54</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.15</v>
+        <v>8.94</v>
       </c>
     </row>
   </sheetData>
